--- a/项目计划书 GitOffice - 定稿.xlsx
+++ b/项目计划书 GitOffice - 定稿.xlsx
@@ -151,10 +151,16 @@
     <t>周启航</t>
   </si>
   <si>
+    <t>Silver_Z@outlook.com</t>
+  </si>
+  <si>
     <t>姚思怡</t>
   </si>
   <si>
     <t>交通运输管理学院/大三</t>
+  </si>
+  <si>
+    <t>yaosiyi2957@outlook.com</t>
   </si>
   <si>
     <t>李志淮</t>
@@ -457,18 +463,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">
-       a）本作品创新性和突破性在于：将Git的版本控制概念应用到普遍意义上的文档管理之中，把office的文档版本控制设计为一种windows10的后台服务，提出一种针对Windows10用户的高效文档管理方式，使得windows用户能够高效便捷的管理文档。同时也能很好地解决版本碎片化的问题，提高工作生产效率。
-               1.版本控制和文档管理的有机结合；
-               2.操作简单，针对非技术类用户，直接上手操作；
-               3.高效管理文档
-               4.利用Git核心功能，解决广泛问题。
+       a）本作品创新性和突破性在于：将Git的版本控制概念应用到普遍意义上的文档管理之中，把office的文档版本控制设计为一种windows10的后台服务，提出一种针对Windows10用户的高效文档管理方式，尝试解决版本碎片化的问题，使得windows用户能够借用版本模式管理文档，提高工作生产效率。
+               1.版本控制和文档管理的操作方面结合；
+               2.操作简单，适应非专业用户，直接上手操作；
+               3.本地的版本化文档管理；
+               4.利用Git核心功能，解决文档重用、团队合作问题。
 </t>
     </r>
     <r>
@@ -506,14 +506,6 @@
     <t>a) 系统计划选用什么技术平台？采用什么样的架构？
 b) 系统采用的开发环境是什么？系统的运行环境是什么？
 c) 系统计划有哪些功能？上述功能有何特点？</t>
-  </si>
-  <si>
-    <t>a) 软件平台：Windows Platform, OneDrive, Git; 硬件平台：x86/x86_x64。
-b) 开发环境：Windows 10, Visual Studio 2013, libgit2； 运行环境：推荐Windows 10, 最低Windows 7。
-c) 功能及特点：
-           1.文档管理，提供简洁高效的Office文档管理方案，帮助用户快速有效地完成自己（团队）文档的版本控制工作；
-           2.人机交互，采用合理自然的人机交互方案，为用户的实际需求提供明确的服务；
-           3.版本控制，建立在Git版本控制方案基础之上，对若干服务进行改进及封装以便更好地发挥其功能；</t>
   </si>
   <si>
     <t>6. 团队组成和分工</t>
@@ -693,11 +685,13 @@
     <t>IC站点注册Email5</t>
   </si>
   <si>
-    <t>Silver_Z@outlook.com</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>yaosiyi2957@outlook.com</t>
+    <t>a) 软件平台：Windows Platform, OneDrive, Git; 硬件平台：x86/x86_x64。
+b) 开发环境：Windows 10, Visual Studio 2013, libgit2； 运行环境：推荐Windows 10, 最低Windows 7。
+c) 功能及特点：
+           1.文档管理，提供Office文档管理方案，帮助Office用户完成自己（团队）文档的版本控制工作；
+           2.人机交互，采用建立在传统文档操作习惯上的人机交互方案，为用户的实际需求提供明确的服务；
+           3.版本控制，建立在Git版本控制方案基础之上，对其若干服务进行改进及封装以便更好地发挥其功能；
+           4.从数据出发，采用无论用户的结果和过程都是珍贵数据的理念，设计数据处理方法。</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +859,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -907,6 +900,7 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1246,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1341,6 +1335,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,9 +1459,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1484,6 +1490,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1493,6 +1509,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF98A45"/>
+      <color rgb="FFEA473A"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF008FD6"/>
+      <color rgb="FF009FEE"/>
+      <color rgb="FF0085C8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1510,13 +1537,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2428875</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1537,7 +1564,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="34660840"/>
+          <a:off x="6943725" y="37464365"/>
           <a:ext cx="3219450" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1548,45 +1575,6 @@
           <a:noFill/>
           <a:miter/>
         </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>1057275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1784985</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="gitoffice_功能结构图"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="30022165"/>
-          <a:ext cx="5099050" cy="2461260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1612,7 +1600,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1620,7 +1608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3004185" y="17233265"/>
+          <a:off x="3004185" y="17214215"/>
           <a:ext cx="5543550" cy="4618355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1634,13 +1622,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1524964</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>314469</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1651,7 +1639,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1665,7 +1653,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="33327340"/>
+          <a:off x="2352675" y="36130865"/>
           <a:ext cx="6906260" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1696,7 +1684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1704,7 +1692,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="22396450"/>
+          <a:off x="3190875" y="22377400"/>
           <a:ext cx="5077460" cy="2467610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1712,6 +1700,1380 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>770659</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="组合 70"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2552700" y="30499050"/>
+          <a:ext cx="6781800" cy="3580534"/>
+          <a:chOff x="15582900" y="6211166"/>
+          <a:chExt cx="6781800" cy="3580534"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="组合 71"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="15582900" y="6211166"/>
+            <a:ext cx="6781800" cy="2913784"/>
+            <a:chOff x="15506700" y="6154016"/>
+            <a:chExt cx="6781800" cy="2913784"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="74" name="直接连接符 11"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="84" idx="0"/>
+              <a:endCxn id="80" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1" flipV="1">
+              <a:off x="17196956" y="5458258"/>
+              <a:ext cx="561975" cy="2770910"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="75" name="直接连接符 13"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="85" idx="0"/>
+              <a:endCxn id="80" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1" flipV="1">
+              <a:off x="17901806" y="6163108"/>
+              <a:ext cx="561975" cy="1361210"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="76" name="直接连接符 15"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="86" idx="0"/>
+              <a:endCxn id="80" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipV="1">
+              <a:off x="18582844" y="6843280"/>
+              <a:ext cx="561975" cy="865"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="77" name="直接连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="87" idx="0"/>
+              <a:endCxn id="80" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipV="1">
+              <a:off x="19301981" y="6124143"/>
+              <a:ext cx="561975" cy="1439140"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="78" name="直接连接符 19"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="88" idx="0"/>
+              <a:endCxn id="80" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipV="1">
+              <a:off x="20002069" y="5424055"/>
+              <a:ext cx="561975" cy="2839315"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="79" name="组合 78"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="15506700" y="6154016"/>
+              <a:ext cx="6781800" cy="2913784"/>
+              <a:chOff x="15697200" y="6125441"/>
+              <a:chExt cx="6781800" cy="2913784"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="80" name="圆角矩形 79"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="18468110" y="6125441"/>
+                <a:ext cx="1171575" cy="408709"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="F98A45"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>GitOffice</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="81" name="组合 80"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="15697200" y="7096125"/>
+                <a:ext cx="6781800" cy="1943100"/>
+                <a:chOff x="15697200" y="7096125"/>
+                <a:chExt cx="6781800" cy="1943100"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="82" name="肘形连接符 81"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="87" idx="2"/>
+                  <a:endCxn id="89" idx="3"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="5400000">
+                  <a:off x="20083463" y="7739063"/>
+                  <a:ext cx="642938" cy="176213"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector2">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="83" name="组合 82"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="15697200" y="7096125"/>
+                  <a:ext cx="6781800" cy="1943100"/>
+                  <a:chOff x="15697200" y="7096125"/>
+                  <a:chExt cx="6781800" cy="1943100"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="84" name="圆角矩形 83"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15697200" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>图形界面</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="85" name="圆角矩形 84"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="17106900" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>回溯模块</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="86" name="圆角矩形 85"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="18468975" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>对比模块</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="87" name="圆角矩形 86"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19907250" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>仓库管理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="88" name="圆角矩形 87"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="21307425" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>文件状态监测</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="89" name="圆角矩形 88"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19145250" y="7943850"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>分支管理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="90" name="圆角矩形 89"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19145250" y="8629650"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>标签管理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="91" name="肘形连接符 90"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="87" idx="2"/>
+                    <a:endCxn id="90" idx="3"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="5400000">
+                    <a:off x="19740563" y="8081963"/>
+                    <a:ext cx="1328738" cy="176213"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="28575">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent6"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+            </xdr:grpSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="文本框 72"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18649950" y="9448800"/>
+            <a:ext cx="1514475" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+              <a:t>功能概览</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="组合 105"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3267075" y="34690050"/>
+          <a:ext cx="5343525" cy="3733800"/>
+          <a:chOff x="8762999" y="9715500"/>
+          <a:chExt cx="5343525" cy="3733800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="107" name="组合 106"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8762999" y="9715500"/>
+            <a:ext cx="5343525" cy="3152775"/>
+            <a:chOff x="8762999" y="9715500"/>
+            <a:chExt cx="5343525" cy="3152775"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="109" name="组合 108"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8762999" y="11668124"/>
+              <a:ext cx="5343525" cy="1200151"/>
+              <a:chOff x="8582024" y="11591924"/>
+              <a:chExt cx="5343525" cy="1200151"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="116" name="圆角矩形 115"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8582024" y="11591924"/>
+                <a:ext cx="5343525" cy="1200151"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="009FEE"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Windows</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="117" name="圆角矩形 116"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9153525" y="12077700"/>
+                <a:ext cx="1247775" cy="561975"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="008FD6"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Explorer</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="118" name="圆角矩形 117"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10572750" y="12077701"/>
+                <a:ext cx="1257300" cy="561974"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="008FD6"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MFC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime Framework</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="119" name="圆角矩形 118"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12087225" y="12068176"/>
+                <a:ext cx="1257300" cy="561974"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="008FD6"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ATL Supports</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="110" name="组合 109"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9258300" y="9715500"/>
+              <a:ext cx="1943100" cy="1781175"/>
+              <a:chOff x="8858250" y="9658350"/>
+              <a:chExt cx="1943100" cy="1781175"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="113" name="圆角矩形 112"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8858250" y="9658350"/>
+                <a:ext cx="1943100" cy="1781175"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="F98A45"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>GitOffice</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="114" name="圆角矩形 113"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9163051" y="10210801"/>
+                <a:ext cx="1314450" cy="381000"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Version</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Control</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="115" name="圆角矩形 114"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9163051" y="10744200"/>
+                <a:ext cx="1314450" cy="514349"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Document</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Management</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="圆角矩形 110"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12077699" y="10106025"/>
+              <a:ext cx="1552575" cy="990600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="EA473A"/>
+            </a:solidFill>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="200000"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Office</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="左右箭头 111"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11325225" y="10506075"/>
+              <a:ext cx="657225" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftRightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill rotWithShape="0">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="BBD5F0"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9CBEE0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="200000"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="文本框 107"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11068050" y="13106400"/>
+            <a:ext cx="1514475" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+              <a:t>平台关系</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1754,7 +3116,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="2295525"/>
+          <a:off x="1676400" y="2286000"/>
           <a:ext cx="6896100" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1772,6 +3134,1419 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31" descr="图片2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16402050" y="10868025"/>
+          <a:ext cx="5438140" cy="4244340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="组合 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15582900" y="6211166"/>
+          <a:ext cx="6781800" cy="3580534"/>
+          <a:chOff x="15582900" y="6211166"/>
+          <a:chExt cx="6781800" cy="3580534"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="组合 30"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="15582900" y="6211166"/>
+            <a:ext cx="6781800" cy="2913784"/>
+            <a:chOff x="15506700" y="6154016"/>
+            <a:chExt cx="6781800" cy="2913784"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="12" name="直接连接符 11"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="5" idx="0"/>
+              <a:endCxn id="3" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1" flipV="1">
+              <a:off x="17196956" y="5458258"/>
+              <a:ext cx="561975" cy="2770910"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="14" name="直接连接符 13"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="6" idx="0"/>
+              <a:endCxn id="3" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1" flipV="1">
+              <a:off x="17901806" y="6163108"/>
+              <a:ext cx="561975" cy="1361210"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="16" name="直接连接符 15"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="7" idx="0"/>
+              <a:endCxn id="3" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipV="1">
+              <a:off x="18582844" y="6843280"/>
+              <a:ext cx="561975" cy="865"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="18" name="直接连接符 17"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="8" idx="0"/>
+              <a:endCxn id="3" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipV="1">
+              <a:off x="19301981" y="6124143"/>
+              <a:ext cx="561975" cy="1439140"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="20" name="直接连接符 19"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="10" idx="0"/>
+              <a:endCxn id="3" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="16200000" flipV="1">
+              <a:off x="20002069" y="5424055"/>
+              <a:ext cx="561975" cy="2839315"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="30" name="组合 29"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="15506700" y="6154016"/>
+              <a:ext cx="6781800" cy="2913784"/>
+              <a:chOff x="15697200" y="6125441"/>
+              <a:chExt cx="6781800" cy="2913784"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="3" name="圆角矩形 2"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="18468110" y="6125441"/>
+                <a:ext cx="1171575" cy="408709"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="F98A45"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>GitOffice</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="29" name="组合 28"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="15697200" y="7096125"/>
+                <a:ext cx="6781800" cy="1943100"/>
+                <a:chOff x="15697200" y="7096125"/>
+                <a:chExt cx="6781800" cy="1943100"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="25" name="肘形连接符 24"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="8" idx="2"/>
+                  <a:endCxn id="22" idx="3"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="5400000">
+                  <a:off x="20083463" y="7739063"/>
+                  <a:ext cx="642938" cy="176213"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector2">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent6"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent6"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="28" name="组合 27"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="15697200" y="7096125"/>
+                  <a:ext cx="6781800" cy="1943100"/>
+                  <a:chOff x="15697200" y="7096125"/>
+                  <a:chExt cx="6781800" cy="1943100"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="5" name="圆角矩形 4"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="15697200" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>图形界面</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="6" name="圆角矩形 5"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="17106900" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>回溯模块</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="7" name="圆角矩形 6"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="18468975" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>对比模块</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="8" name="圆角矩形 7"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19907250" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>仓库管理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="10" name="圆角矩形 9"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="21307425" y="7096125"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>文件状态监测</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="22" name="圆角矩形 21"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19145250" y="7943850"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>分支管理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="23" name="圆角矩形 22"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="19145250" y="8629650"/>
+                    <a:ext cx="1171575" cy="409575"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:solidFill>
+                    <a:srgbClr val="F98A45"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:lnRef>
+                  <a:fillRef idx="2">
+                    <a:schemeClr val="accent5"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent5"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="dk1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="ctr"/>
+                    <a:r>
+                      <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                        <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      </a:rPr>
+                      <a:t>标签管理</a:t>
+                    </a:r>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="27" name="肘形连接符 26"/>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="8" idx="2"/>
+                    <a:endCxn id="23" idx="3"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm rot="5400000">
+                    <a:off x="19740563" y="8081963"/>
+                    <a:ext cx="1328738" cy="176213"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="bentConnector2">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln w="28575">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="1">
+                    <a:schemeClr val="accent6"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+            </xdr:grpSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="文本框 44"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18649950" y="9448800"/>
+            <a:ext cx="1514475" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+              <a:t>功能概览</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="组合 47"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8762999" y="9715500"/>
+          <a:ext cx="5343525" cy="3733800"/>
+          <a:chOff x="8762999" y="9715500"/>
+          <a:chExt cx="5343525" cy="3733800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="44" name="组合 43"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8762999" y="9715500"/>
+            <a:ext cx="5343525" cy="3152775"/>
+            <a:chOff x="8762999" y="9715500"/>
+            <a:chExt cx="5343525" cy="3152775"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="41" name="组合 40"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="8762999" y="11668124"/>
+              <a:ext cx="5343525" cy="1200151"/>
+              <a:chOff x="8582024" y="11591924"/>
+              <a:chExt cx="5343525" cy="1200151"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="33" name="圆角矩形 32"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8582024" y="11591924"/>
+                <a:ext cx="5343525" cy="1200151"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="009FEE"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Windows</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="34" name="圆角矩形 33"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9153525" y="12077700"/>
+                <a:ext cx="1247775" cy="561975"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="008FD6"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Explorer</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="35" name="圆角矩形 34"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10572750" y="12077701"/>
+                <a:ext cx="1257300" cy="561974"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="008FD6"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MFC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Runtime Framework</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="36" name="圆角矩形 35"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12087225" y="12068176"/>
+                <a:ext cx="1257300" cy="561974"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="008FD6"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ATL Supports</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="40" name="组合 39"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9258300" y="9715500"/>
+              <a:ext cx="1943100" cy="1781175"/>
+              <a:chOff x="8858250" y="9658350"/>
+              <a:chExt cx="1943100" cy="1781175"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="37" name="圆角矩形 36"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8858250" y="9658350"/>
+                <a:ext cx="1943100" cy="1781175"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:srgbClr val="F98A45"/>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>GitOffice</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="38" name="圆角矩形 37"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9163051" y="10210801"/>
+                <a:ext cx="1314450" cy="381000"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Version</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Control</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="圆角矩形 38"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9163051" y="10744200"/>
+                <a:ext cx="1314450" cy="514349"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="200000"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Document</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Management</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="圆角矩形 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12077699" y="10106025"/>
+              <a:ext cx="1552575" cy="990600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="EA473A"/>
+            </a:solidFill>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="200000"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Office</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="左右箭头 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11325225" y="10506075"/>
+              <a:ext cx="657225" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="leftRightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:gradFill rotWithShape="0">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="BBD5F0"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9CBEE0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter lim="200000"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="文本框 46"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11068050" y="13106400"/>
+            <a:ext cx="1514475" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+              <a:t>平台关系</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2223,10 +4998,10 @@
     <tabColor indexed="25"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2241,109 +5016,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="53.25" customHeight="1">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="2:12" ht="48" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="2:12" ht="16.5">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:12" ht="16.5">
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="16.5">
       <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="16.5">
       <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="2:12" ht="16.5">
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="45">
         <v>18840820726</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="2:12" ht="16.5">
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="2:12" ht="16.5">
       <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="L10" s="34" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="L10" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2351,13 +5126,13 @@
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="L11" s="34" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="L11" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2365,13 +5140,13 @@
       <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="L12" s="34" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="L12" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2379,21 +5154,21 @@
       <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="2:12" ht="16.5">
       <c r="B15" s="22" t="s">
@@ -2460,444 +5235,484 @@
         <v>18840821916</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="27">
         <v>18840822141</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="27">
         <v>18904082196</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="B21" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" customHeight="1">
-      <c r="B22" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
       <c r="B23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
+        <v>42</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1">
       <c r="A24" s="31"/>
-      <c r="B24" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="B24" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="75.75" customHeight="1">
-      <c r="B25" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="60"/>
+      <c r="B25" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:7" ht="102" customHeight="1">
-      <c r="B26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="60"/>
+      <c r="B26" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="65"/>
     </row>
     <row r="27" spans="1:7" ht="66.75" customHeight="1">
-      <c r="B27" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
+      <c r="B27" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:7" ht="71.25" customHeight="1">
-      <c r="B29" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
+      <c r="B29" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:7" ht="46.5" customHeight="1">
-      <c r="B30" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
+      <c r="B30" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
     </row>
     <row r="31" spans="1:7" ht="54.75" customHeight="1">
-      <c r="B31" s="61"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="60"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:7" ht="63.75" customHeight="1">
-      <c r="B32" s="61"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="60"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:7" ht="52.5" customHeight="1">
-      <c r="B33" s="61"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="60"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:7" ht="150" customHeight="1">
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="B35" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="1:7" ht="63.95" customHeight="1">
-      <c r="B36" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
+      <c r="B36" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1">
-      <c r="B37" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="80"/>
+      <c r="B37" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="84"/>
     </row>
     <row r="38" spans="1:7" ht="52.5" customHeight="1">
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
     </row>
     <row r="39" spans="1:7" ht="47.25" customHeight="1">
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
     </row>
     <row r="40" spans="1:7" ht="63" customHeight="1">
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="74"/>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1">
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="69"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
     </row>
     <row r="42" spans="1:7" ht="58.5" customHeight="1">
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="74"/>
     </row>
     <row r="43" spans="1:7" ht="54" customHeight="1">
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="74"/>
     </row>
     <row r="44" spans="1:7" ht="41.25" customHeight="1">
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
     </row>
     <row r="45" spans="1:7" ht="45.75" customHeight="1">
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="74"/>
     </row>
     <row r="46" spans="1:7" ht="240.95" customHeight="1">
       <c r="A46" s="31"/>
-      <c r="B46" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
+      <c r="B46" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
       <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" s="19" customFormat="1">
-      <c r="B47" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
+      <c r="B47" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
     </row>
     <row r="48" spans="1:7" s="19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B48" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
+      <c r="B48" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="74"/>
+      <c r="B49" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="78"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="61"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="60"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="65"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="61"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="60"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="65"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="61"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="60"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="65"/>
     </row>
     <row r="53" spans="2:7" ht="75.95" customHeight="1">
-      <c r="B53" s="75"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="2:7" s="19" customFormat="1">
-      <c r="B54" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-    </row>
-    <row r="55" spans="2:7" s="19" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B55" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
+      <c r="B54" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+    </row>
+    <row r="55" spans="2:7" s="19" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B55" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="80"/>
+      <c r="B56" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="84"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="74"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="69"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="74"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="69"/>
-    </row>
-    <row r="60" spans="2:7" ht="136.5" customHeight="1">
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="69"/>
-    </row>
-    <row r="61" spans="2:7" ht="156.75" customHeight="1">
-      <c r="B61" s="71"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="32"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-    </row>
-    <row r="63" spans="2:7" ht="16.5">
-      <c r="B63" s="65" t="s">
+      <c r="B59" s="72"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="74"/>
+    </row>
+    <row r="60" spans="2:7" ht="97.5" customHeight="1">
+      <c r="B60" s="72"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="74"/>
+    </row>
+    <row r="61" spans="2:7" ht="137.25" customHeight="1">
+      <c r="B61" s="72"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="87"/>
+    </row>
+    <row r="62" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="87"/>
+    </row>
+    <row r="63" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="87"/>
+    </row>
+    <row r="64" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B64" s="34"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="87"/>
+    </row>
+    <row r="65" spans="2:7" ht="117.75" customHeight="1">
+      <c r="B65" s="34"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="87"/>
+    </row>
+    <row r="66" spans="2:7" ht="73.5" customHeight="1" thickBot="1">
+      <c r="B66" s="38"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="87"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="81"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="61"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="60"/>
-    </row>
-    <row r="66" spans="2:6" ht="22.5" customHeight="1">
-      <c r="B66" s="61"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="60"/>
-    </row>
-    <row r="67" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B67" s="61"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="60"/>
-    </row>
-    <row r="68" spans="2:6" ht="45" customHeight="1">
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="77"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+    </row>
+    <row r="68" spans="2:7" ht="16.5">
+      <c r="B68" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="85"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="78"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="66"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="65"/>
+    </row>
+    <row r="71" spans="2:7" ht="22.5" customHeight="1">
+      <c r="B71" s="66"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="65"/>
+    </row>
+    <row r="72" spans="2:7" ht="21.75" customHeight="1">
+      <c r="B72" s="66"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="65"/>
+    </row>
+    <row r="73" spans="2:7" ht="45" customHeight="1">
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B30:F34"/>
     <mergeCell ref="B37:F42"/>
-    <mergeCell ref="B64:F68"/>
+    <mergeCell ref="B69:F73"/>
     <mergeCell ref="B56:F60"/>
     <mergeCell ref="B49:F53"/>
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B67:F67"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B45:F45"/>
@@ -2938,7 +5753,7 @@
   <hyperlinks>
     <hyperlink ref="F16" r:id="rId1"/>
     <hyperlink ref="F20" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId3" tooltip="mailto:Silver_Z@outlook.com"/>
     <hyperlink ref="F17" r:id="rId4"/>
     <hyperlink ref="C9" r:id="rId5" tooltip="mailto:swfeng@dlmu.edu.cn"/>
     <hyperlink ref="F19" r:id="rId6"/>
@@ -2953,8 +5768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:T25"/>
+    <sheetView topLeftCell="J31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2979,31 +5794,31 @@
     <row r="6" spans="3:15" s="1" customFormat="1">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -3012,20 +5827,20 @@
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L7" s="14"/>
     </row>
@@ -3035,16 +5850,16 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -3058,24 +5873,24 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="3:15" ht="15.75">
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3083,133 +5898,133 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="15:20" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="P20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="15:20" ht="36" customHeight="1">
       <c r="O21" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="S21" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="15:20" ht="42.95" customHeight="1">
       <c r="O22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="S22" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="15:20" ht="24" customHeight="1">
       <c r="O23" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="R23" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="S23" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="15:20" ht="36" customHeight="1">
       <c r="O24" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="15:20" ht="33" customHeight="1">
       <c r="O25" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3292,79 +6107,79 @@
         <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AI1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:35">

--- a/项目计划书 GitOffice - 定稿.xlsx
+++ b/项目计划书 GitOffice - 定稿.xlsx
@@ -930,7 +930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1038,52 +1038,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="20"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="20"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="20"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="20"/>
-      </right>
-      <top style="medium">
-        <color indexed="20"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,6 +1185,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="20"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="20"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="20"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1302,10 +1287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1329,13 +1314,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1347,50 +1332,132 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,105 +1469,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1722,7 +1707,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2552700" y="30499050"/>
+          <a:off x="2552700" y="30518100"/>
           <a:ext cx="6781800" cy="3580534"/>
           <a:chOff x="15582900" y="6211166"/>
           <a:chExt cx="6781800" cy="3580534"/>
@@ -2563,7 +2548,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3267075" y="34690050"/>
+          <a:off x="3267075" y="34709100"/>
           <a:ext cx="5343525" cy="3733800"/>
           <a:chOff x="8762999" y="9715500"/>
           <a:chExt cx="5343525" cy="3733800"/>
@@ -5000,8 +4985,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5016,108 +5001,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="53.25" customHeight="1">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="2:12" ht="48" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="42" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1">
+      <c r="B3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="2:12" ht="16.5">
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="2:12" ht="16.5">
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="2:12" ht="16.5">
       <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="2:12" ht="16.5">
       <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="2:12" ht="16.5">
       <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="78">
         <v>18840820726</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="2:12" ht="16.5">
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="2:12" ht="16.5">
       <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
       <c r="L10" s="39" t="s">
         <v>16</v>
       </c>
@@ -5126,12 +5111,12 @@
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="L11" s="39" t="s">
         <v>19</v>
       </c>
@@ -5140,12 +5125,12 @@
       <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
       <c r="L12" s="39" t="s">
         <v>21</v>
       </c>
@@ -5154,21 +5139,21 @@
       <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="2:12" ht="16.5">
       <c r="B15" s="22" t="s">
@@ -5273,339 +5258,339 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
     </row>
     <row r="22" spans="1:7" ht="20.25" customHeight="1">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:7" ht="16.5">
       <c r="B23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1">
       <c r="A24" s="31"/>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="75.75" customHeight="1">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="65"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="102" customHeight="1">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="65"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:7" ht="66.75" customHeight="1">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:7" ht="71.25" customHeight="1">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="46.5" customHeight="1">
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:7" ht="54.75" customHeight="1">
-      <c r="B31" s="66"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="65"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:7" ht="63.75" customHeight="1">
-      <c r="B32" s="66"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="65"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:7" ht="52.5" customHeight="1">
-      <c r="B33" s="66"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="65"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
     </row>
     <row r="34" spans="1:7" ht="150" customHeight="1">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="1:7" ht="63.95" customHeight="1">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:7" ht="56.25" customHeight="1">
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:7" ht="52.5" customHeight="1">
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:7" ht="47.25" customHeight="1">
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:7" ht="63" customHeight="1">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1">
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:7" ht="58.5" customHeight="1">
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="74"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:7" ht="54" customHeight="1">
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="74"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:7" ht="41.25" customHeight="1">
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="74"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:7" ht="45.75" customHeight="1">
-      <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="74"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:7" ht="240.95" customHeight="1">
       <c r="A46" s="31"/>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
       <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" s="19" customFormat="1">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
     </row>
     <row r="48" spans="1:7" s="19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="66"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="65"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="66"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="65"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="66"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="65"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
     </row>
     <row r="53" spans="2:7" ht="75.95" customHeight="1">
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="81"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="51"/>
     </row>
     <row r="54" spans="2:7" s="19" customFormat="1">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
     </row>
     <row r="55" spans="2:7" s="19" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="71"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="84"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="54"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="74"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="72"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="74"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="72"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="74"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="57"/>
     </row>
     <row r="60" spans="2:7" ht="97.5" customHeight="1">
-      <c r="B60" s="72"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="74"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="57"/>
     </row>
     <row r="61" spans="2:7" ht="137.25" customHeight="1">
-      <c r="B61" s="72"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="87"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="40"/>
     </row>
     <row r="62" spans="2:7" ht="117.75" customHeight="1">
       <c r="B62" s="34"/>
@@ -5613,7 +5598,7 @@
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="87"/>
+      <c r="G62" s="40"/>
     </row>
     <row r="63" spans="2:7" ht="117.75" customHeight="1">
       <c r="B63" s="34"/>
@@ -5621,7 +5606,7 @@
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="36"/>
-      <c r="G63" s="87"/>
+      <c r="G63" s="40"/>
     </row>
     <row r="64" spans="2:7" ht="117.75" customHeight="1">
       <c r="B64" s="34"/>
@@ -5629,7 +5614,7 @@
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="87"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="2:7" ht="117.75" customHeight="1">
       <c r="B65" s="34"/>
@@ -5637,71 +5622,96 @@
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
       <c r="F65" s="36"/>
-      <c r="G65" s="87"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="2:7" ht="73.5" customHeight="1" thickBot="1">
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="87"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
     </row>
     <row r="68" spans="2:7" ht="16.5">
-      <c r="B68" s="70" t="s">
+      <c r="B68" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="85"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="78"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="66"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="65"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="48"/>
     </row>
     <row r="71" spans="2:7" ht="22.5" customHeight="1">
-      <c r="B71" s="66"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="65"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="48"/>
     </row>
     <row r="72" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B72" s="66"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="65"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="48"/>
     </row>
     <row r="73" spans="2:7" ht="45" customHeight="1">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="81"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="B68:F68"/>
     <mergeCell ref="B30:F34"/>
     <mergeCell ref="B37:F42"/>
@@ -5718,31 +5728,6 @@
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="1">
